--- a/biology/Botanique/Bulbophyllum_calyptratum/Bulbophyllum_calyptratum.xlsx
+++ b/biology/Botanique/Bulbophyllum_calyptratum/Bulbophyllum_calyptratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bulbophyllum calyptratum est une espèce de plantes de la famille des Orchidées et du genre Bulbophyllum, présente dans de nombreux pays d'Afrique tropicale : Guinée, Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Cameroun, région continentale de la Guinée équatoriale, île de Principe (Sao Tomé-et-Principe), Gabon, République du Congo, République démocratique du Congo[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bulbophyllum calyptratum est une espèce de plantes de la famille des Orchidées et du genre Bulbophyllum, présente dans de nombreux pays d'Afrique tropicale : Guinée, Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Cameroun, région continentale de la Guinée équatoriale, île de Principe (Sao Tomé-et-Principe), Gabon, République du Congo, République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 décembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 décembre 2018) :
 variété Bulbophyllum calyptratum var. calyptratum
 variété Bulbophyllum calyptratum var. graminifolium
 variété Bulbophyllum calyptratum var. lucifugum
-Selon The Plant List            (22 décembre 2018)[1] :
+Selon The Plant List            (22 décembre 2018) :
 variété Bulbophyllum calyptratum var. graminifolium (Summerh.) J.J.Verm.
 variété Bulbophyllum calyptratum var. lucifugum (Summerh.) J.J.Verm.
-Selon Tropicos                                           (22 décembre 2018)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Bulbophyllum calyptratum var. calyptratum
 variété Bulbophyllum calyptratum var. graminifolium (Summerh.) J.J. Verm.
 variété Bulbophyllum calyptratum var. lucifugum (Summerh.) J.J. Verm.</t>
